--- a/soccer/ligue.xlsx
+++ b/soccer/ligue.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvray\OneDrive\Documents\Web Development\NBA TEAMS\nba_socmed_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/kirt_raynes_spglobal_com/Documents/Documents/Notebooks/NBA Teams/soccer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C13A4A-8D39-411F-BED5-41390EC5523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{73C13A4A-8D39-411F-BED5-41390EC5523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F7484DD-8AD3-42F3-8594-9E7A07ADBAC2}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feb 2024 Ligue" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -763,13 +763,13 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -845,7 +845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -880,7 +880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -915,7 +915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -950,7 +950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -985,7 +985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>113</v>
       </c>
